--- a/biology/Zoologie/Anartia_chrysopelea/Anartia_chrysopelea.xlsx
+++ b/biology/Zoologie/Anartia_chrysopelea/Anartia_chrysopelea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anartia chrysopelea est un insecte lépidoptère appartenant à la famille des Nymphalidae à la sous-famille des Nymphalinae et au genre Anartia.
 </t>
@@ -511,12 +523,12 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom d' Anartia chrysopelea lui a été donné par Hübner en 1831.
-Synonymes : Anartia lytrea eurytis Fruhstorfer, 1907[1].
-Noms vernaculaires
-Anartia chrysopelea se nomme Cuban Peacock ou Caribbean Peacock en anglais.
+Synonymes : Anartia lytrea eurytis Fruhstorfer, 1907.
 </t>
         </is>
       </c>
@@ -542,12 +554,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Anartia chrysopelea est un grand papillon marron doré avec une bande blanche qui barre les ailes antérieures et un triangle blanc au centre des postérieures. Un ocelle orange centré de noir est sur chacune des quatre ailes placée postérieurement aux marques blanches[2].
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anartia chrysopelea se nomme Cuban Peacock ou Caribbean Peacock en anglais.
 </t>
         </is>
       </c>
@@ -573,15 +591,14 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Période de vol et hivernation
-Il vole de janvier à septembre à Cuba[3].
-Plantes hôtes
-La plante hôte de sa chenille est un Lippia.
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anartia chrysopelea est un grand papillon marron doré avec une bande blanche qui barre les ailes antérieures et un triangle blanc au centre des postérieures. Un ocelle orange centré de noir est sur chacune des quatre ailes placée postérieurement aux marques blanches.
 </t>
         </is>
       </c>
@@ -607,16 +624,162 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Période de vol et hivernation</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il vole de janvier à septembre à Cuba.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Anartia_chrysopelea</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anartia_chrysopelea</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plante hôte de sa chenille est un Lippia.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Anartia_chrysopelea</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anartia_chrysopelea</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est présent à Cuba[1]. Quelques spécimens ont été trouvés en Floride[4].
-Biotope
-Il réside dans les zones de maquis.
-Protection
-Pas de statut de protection particulier.
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est présent à Cuba. Quelques spécimens ont été trouvés en Floride.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Anartia_chrysopelea</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anartia_chrysopelea</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside dans les zones de maquis.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Anartia_chrysopelea</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anartia_chrysopelea</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
